--- a/Results/Sentiment Analysis-1/Intraday Analysis Both.xlsx
+++ b/Results/Sentiment Analysis-1/Intraday Analysis Both.xlsx
@@ -14697,8 +14697,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217003136"/>
-        <c:axId val="217004672"/>
+        <c:axId val="658807040"/>
+        <c:axId val="658812928"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -17086,11 +17086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217008000"/>
-        <c:axId val="217006464"/>
+        <c:axId val="658816000"/>
+        <c:axId val="658814464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217003136"/>
+        <c:axId val="658807040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42822.676999999996"/>
@@ -17102,13 +17102,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="217004672"/>
+        <c:crossAx val="658812928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4.1666000000000009E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217004672"/>
+        <c:axId val="658812928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17119,12 +17119,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217003136"/>
+        <c:crossAx val="658807040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217006464"/>
+        <c:axId val="658814464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17134,12 +17134,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217008000"/>
+        <c:crossAx val="658816000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217008000"/>
+        <c:axId val="658816000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17149,7 +17149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217006464"/>
+        <c:crossAx val="658814464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17497,8 +17497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
